--- a/biology/Médecine/Marie-Odile_Rethoré/Marie-Odile_Rethoré.xlsx
+++ b/biology/Médecine/Marie-Odile_Rethoré/Marie-Odile_Rethoré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marie-Odile_Rethor%C3%A9</t>
+          <t>Marie-Odile_Rethoré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marie-Odile Rethoré, née le 11 juillet 1929 à Neuilly-sur-Seine et morte le 17 avril 2023[1] à Paris 6e, est une médecin française.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marie-Odile Rethoré, née le 11 juillet 1929 à Neuilly-sur-Seine et morte le 17 avril 2023 à Paris 6e, est une médecin française.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marie-Odile_Rethor%C3%A9</t>
+          <t>Marie-Odile_Rethoré</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Membre de l'Académie nationale de médecine et de la fondation Jérôme-Lejeune, elle a été pionnière en génétique et dans la prise en charge des personnes avec une déficience intellectuelle.
 Médecin par vocation, elle a soutenu sa thèse en 1957 et a été le bras droit de Jérôme Lejeune pendant près de 40 ans, dédiant sa vie aux personnes ayant une déficience intellectuelle d'origine génétique, comme la trisomie 21.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Marie-Odile_Rethor%C3%A9</t>
+          <t>Marie-Odile_Rethoré</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Officière de la Légion d'honneur (31 décembre 2004)[2]. Chevalière du 13 juillet 1994[3]
- Commandeure de l'ordre national du Mérite (13 novembre 2009)[4]. Officière du 15 novembre 1999[5]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Officière de la Légion d'honneur (31 décembre 2004). Chevalière du 13 juillet 1994
+ Commandeure de l'ordre national du Mérite (13 novembre 2009). Officière du 15 novembre 1999</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Marie-Odile_Rethor%C3%A9</t>
+          <t>Marie-Odile_Rethoré</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +590,12 @@
           <t>Affiliations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Membre titulaire de l'Académie nationale de médecine (16 mars 1995)[6]
-Membre titulaire émérite de l'Académie nationale de médecine (25 avril 2022)[7]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Membre titulaire de l'Académie nationale de médecine (16 mars 1995)
+Membre titulaire émérite de l'Académie nationale de médecine (25 avril 2022)</t>
         </is>
       </c>
     </row>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Marie-Odile_Rethor%C3%A9</t>
+          <t>Marie-Odile_Rethoré</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Marie-Odile Rethoré, Henri Bléhaut, Sylvie de Kermadec, Clotilde Mircher Trisomie 21 : guide à l'usage des familles et de leur entourage, Éditions Bash, 2005  (ISBN 2845040415)</t>
         </is>
